--- a/APM files/124406528/MinGoLive.xlsx
+++ b/APM files/124406528/MinGoLive.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\124406528\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FC56579-CBEB-4AF4-8188-6F5CE856F391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CECC99-967A-4D48-A354-BC02E65B5237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="5145" windowWidth="21510" windowHeight="13215"/>
+    <workbookView xWindow="14190" yWindow="3360" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MinGoLive_Report_Production_202" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1251,17 +1251,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1591,11 +1581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B181" sqref="B2:B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8022,11 +8012,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I221">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",A1)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="fasle">
       <formula>NOT(ISERROR(SEARCH("fasle",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
